--- a/public/Economia.xlsx
+++ b/public/Economia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A429CD4A-9B50-4AFA-A112-1DC418B19897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20201549-1673-40D4-9F54-A8094C27D804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
-  <si>
-    <t>Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Fecha</t>
   </si>
@@ -169,13 +166,19 @@
   </si>
   <si>
     <t>5-Octube</t>
+  </si>
+  <si>
+    <t>8-Octube</t>
+  </si>
+  <si>
+    <t>Para Recargar el telefono</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +215,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +247,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -262,24 +289,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,46 +308,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,539 +677,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A3:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="8"/>
-    <col min="9" max="9" width="74.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+    <row r="3" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>7</v>
+      <c r="D3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>360</v>
+      </c>
+      <c r="B4" s="7">
+        <v>308</v>
+      </c>
+      <c r="C4" s="7">
+        <f>A4*B4</f>
+        <v>110880</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40000</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="11">
+        <f>SUM(C4:C19995)-SUM(E4:E19995)</f>
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="1">
+        <v>300</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="1">
+        <v>60000</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="9">
-        <v>360</v>
-      </c>
-      <c r="E4" s="9">
-        <v>308</v>
-      </c>
-      <c r="F4" s="9">
-        <f>D4*E4</f>
-        <v>110880</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="15">
+        <v>30</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15">
+        <v>30</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15">
+        <v>100</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="E13" s="1">
+        <v>27</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="1">
+        <v>500</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="1">
+        <v>140</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1">
+        <v>210</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="1">
+        <v>1750</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="1">
+        <v>800</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="9">
-        <v>40000</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="19">
-        <f>F4-SUM(H4:H19995)</f>
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9">
-        <v>300</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9">
-        <v>60000</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1">
+        <v>50</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1">
+        <v>520</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1">
+        <v>400</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1">
+        <v>500</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1">
+        <v>20</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="1">
+        <v>10</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="1">
+        <v>250</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="1">
+        <v>250</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8">
-        <v>30</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8">
-        <v>100</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="11" t="s">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="1">
+        <v>15</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="1">
+        <v>50</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="1">
+        <v>59</v>
+      </c>
+      <c r="F34" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="H11" s="9">
-        <v>1500</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="H13" s="9">
-        <v>27</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="9">
-        <v>500</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="9">
-        <v>140</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="9">
-        <v>210</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="9">
-        <v>1750</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="9">
-        <v>800</v>
-      </c>
-      <c r="I18" s="16" t="s">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="1">
+        <v>50</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>20</v>
       </c>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5">
-        <f>SUM(B1:B17)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="9">
+      <c r="B37" s="7">
+        <v>310</v>
+      </c>
+      <c r="C37" s="7">
+        <f>A37*B37</f>
+        <v>6200</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="9">
-        <v>520</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="9">
-        <v>400</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="9">
-        <v>500</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="9">
-        <v>20</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="9">
-        <v>10</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="9">
-        <v>250</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9">
-        <v>250</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9">
-        <v>15</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9">
-        <v>50</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9">
-        <v>59</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="9">
-        <v>50</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J35" s="9"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1201,31 +1191,31 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>45536</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>45536</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/public/Economia.xlsx
+++ b/public/Economia.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20201549-1673-40D4-9F54-A8094C27D804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2BA271-1C62-40CA-B6F2-AB517E3ECC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Fecha</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>Para Recargar el telefono</t>
+  </si>
+  <si>
+    <t>Total de MN</t>
+  </si>
+  <si>
+    <t>Debo</t>
+  </si>
+  <si>
+    <t>En USD</t>
   </si>
 </sst>
 </file>
@@ -222,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +274,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -293,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,13 +386,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,23 +713,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I37"/>
+  <dimension ref="A3:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -703,20 +739,29 @@
       <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>360</v>
       </c>
@@ -727,430 +772,473 @@
         <f>A4*B4</f>
         <v>110880</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="26">
+        <f>SUM(C4:C37)</f>
+        <v>117080</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>40000</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11">
-        <f>SUM(C4:C19995)-SUM(E4:E19995)</f>
+      <c r="H4" s="11">
+        <f>SUM(C4:C19995)-SUM(F4:F19995)</f>
         <v>8519</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I4" s="28">
+        <f>D4-SUM(F6,F11,F13,F14,F15,F16,F17,F18,F22,F24,F27,F28)</f>
+        <v>50753</v>
+      </c>
+      <c r="J4">
+        <f>I4/310</f>
+        <v>163.71935483870968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="1">
         <v>300</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1">
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="1">
         <v>60000</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="15">
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="15">
         <v>30</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="15">
         <v>30</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="15">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="15">
         <v>100</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="E11" s="1">
+      <c r="D11" s="7"/>
+      <c r="F11" s="1">
         <v>1500</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="E13" s="1">
+      <c r="D13" s="7"/>
+      <c r="F13" s="1">
         <v>27</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="1">
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="1">
         <v>500</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I14" s="7"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="1">
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="1">
         <v>140</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="G15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="1">
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="1">
         <v>210</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="G16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="1">
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="1">
         <v>1750</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="G17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="1">
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="1">
         <v>800</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="1">
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="1">
         <v>50</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="G20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="1">
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="1">
         <v>520</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="G21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="1">
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="1">
         <v>400</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="1">
+      <c r="D24" s="7"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="1">
         <v>500</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="G24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="1">
+      <c r="D25" s="7"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="1">
         <v>20</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="G25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="1">
+      <c r="D26" s="7"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="1">
         <v>10</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="1">
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="1">
         <v>250</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="G27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="1">
+      <c r="E28" s="7"/>
+      <c r="F28" s="1">
         <v>250</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="G28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="1"/>
+      <c r="G29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="1">
+      <c r="E30" s="7"/>
+      <c r="F30" s="1">
         <v>15</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="G30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="1">
+      <c r="E31" s="7"/>
+      <c r="F31" s="1">
         <v>50</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="G31" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="1">
+      <c r="E32" s="7"/>
+      <c r="F32" s="1">
         <v>1000</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="G32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="1">
+      <c r="E34" s="7"/>
+      <c r="F34" s="1">
         <v>59</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="G34" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>50</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="G35" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="15"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>20</v>
       </c>
@@ -1161,11 +1249,12 @@
         <f>A37*B37</f>
         <v>6200</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="15"/>
+      <c r="G37" s="16" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1201,10 +1290,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="24">
         <v>45536</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1212,8 +1301,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
